--- a/reports/predict-fraud-Report.xlsx
+++ b/reports/predict-fraud-Report.xlsx
@@ -9,24 +9,22 @@
   <sheets>
     <sheet name="Prediction Info" sheetId="1" r:id="rId1"/>
     <sheet name="Prediction Result" sheetId="2" r:id="rId2"/>
-    <sheet name="Predicted Vs Actual" sheetId="3" r:id="rId3"/>
-    <sheet name="Decile Wise Performance" sheetId="4" r:id="rId4"/>
     <sheet name="Models" sheetId="5" r:id="rId5"/>
     <sheet name="Variables" sheetId="6" r:id="rId6"/>
     <sheet name="Variables of Models" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="ModelCount" localSheetId="5">OFFSET(Variables!$B$1,1,0,COUNTA(Variables!$B:$B)-1,1)</definedName>
+    <definedName name="ModelCount" localSheetId="3">OFFSET(Variables!$B$1,1,0,COUNTA(Variables!$B:$B)-1,1)</definedName>
     <definedName name="ModelNumber">OFFSET(Models!$A$1,1,0,COUNTA(Models!$A:$A)-1,1)</definedName>
     <definedName name="RecordsPredictedByModel">OFFSET(Models!$B$1,1,0,COUNTA(Models!$B:$B)-1,1)</definedName>
-    <definedName name="Variable" localSheetId="5">OFFSET(Variables!$A$1,1,0,COUNTA(Variables!$A:$A)-1,1)</definedName>
+    <definedName name="Variable" localSheetId="3">OFFSET(Variables!$A$1,1,0,COUNTA(Variables!$A:$A)-1,1)</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t xml:space="preserve">Prediction Analysis </t>
   </si>
@@ -142,67 +140,43 @@
     <t>Tracker Variable</t>
   </si>
   <si>
-    <t/>
+    <t>predict-fraud</t>
+  </si>
+  <si>
+    <t>Predict</t>
+  </si>
+  <si>
+    <t>Both values</t>
+  </si>
+  <si>
+    <t>00:00:15</t>
+  </si>
+  <si>
+    <t>00:00:10</t>
+  </si>
+  <si>
+    <t>holdout_data.csv</t>
+  </si>
+  <si>
+    <t>00:00:05</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Precision(%)</t>
-  </si>
-  <si>
-    <t>AUC ROC</t>
-  </si>
-  <si>
-    <t>Recall(%)</t>
-  </si>
-  <si>
-    <t>Overall Accuracy(%)</t>
-  </si>
-  <si>
-    <t>Predicted</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>demo-holdout</t>
-  </si>
-  <si>
-    <t>Predict</t>
-  </si>
-  <si>
-    <t>Both values</t>
-  </si>
-  <si>
-    <t>00:00:20</t>
-  </si>
-  <si>
-    <t>00:00:10</t>
-  </si>
-  <si>
-    <t>holdout_data_demo.csv</t>
-  </si>
-  <si>
-    <t>00:00:05</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Match(%)</t>
   </si>
   <si>
     <t>M - 2</t>
@@ -248,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,16 +273,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,23 +293,6 @@
     </fill>
     <fill>
       <patternFill>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
@@ -349,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -357,50 +310,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -430,25 +344,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,7 +1239,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1349,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,7 +1255,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,7 +1263,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1373,7 +1271,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,7 +1327,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1437,7 +1335,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,7 +1359,7 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1483,13 +1381,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="13.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="15.0" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.140625" collapsed="true" hidden="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="15.0" collapsed="true" hidden="true"/>
+    <col min="7" max="7" style="1" width="9.140625" collapsed="true" hidden="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -1527,161 +1426,89 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
       </c>
-      <c r="D3" t="n" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="D3" t="n" s="17">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="D4" t="n" s="21">
+      <c r="D4" t="n" s="17">
         <v>1.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
       </c>
-      <c r="D5" t="n" s="21">
+      <c r="D5" t="n" s="17">
         <v>0.9731000000000001</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
       </c>
-      <c r="D6" t="n" s="21">
+      <c r="D6" t="n" s="17">
         <v>0.7905</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
         <v>7.0</v>
       </c>
-      <c r="D7" t="n" s="21">
+      <c r="D7" t="n" s="17">
         <v>0.7278</v>
       </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="n" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -3230,350 +3057,6 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="23.140625" collapsed="true"/>
-    <col min="2" max="16384" style="2" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3">
-      <c r="A3"/>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="18">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="n">
-        <v>80.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="16.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="8.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="10.5703125" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="n" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G3" t="n" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C4" t="n" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G4" t="n" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C5" t="n" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n" s="21">
-        <v>0.9731000000000001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="n" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C6" t="n" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n" s="21">
-        <v>0.7905</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="n" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C7" t="n" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="n" s="21">
-        <v>0.7278</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G7" t="n" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3605,7 +3088,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
@@ -3613,7 +3096,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B3" t="n">
         <v>2.0</v>
@@ -3621,7 +3104,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -3660,7 +3143,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B2" t="n">
         <v>3.0</v>
@@ -3668,7 +3151,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B3" t="n">
         <v>2.0</v>
@@ -3676,7 +3159,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B4" t="n">
         <v>2.0</v>
@@ -3684,7 +3167,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -3692,7 +3175,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B6" t="n">
         <v>1.0</v>
@@ -3723,20 +3206,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="23">
+      <c r="A1" t="s" s="19">
         <v>11</v>
       </c>
-      <c r="B1" t="s" s="23">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s" s="23">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s" s="23">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s" s="23">
-        <v>70</v>
+      <c r="B1" t="s" s="19">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s" s="19">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s" s="19">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s" s="19">
+        <v>62</v>
       </c>
     </row>
     <row r="2">
@@ -3744,16 +3227,16 @@
         <v>2.0</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -3761,13 +3244,13 @@
         <v>3.0</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -3775,10 +3258,10 @@
         <v>7.0</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
